--- a/data_month/zb/工业/工业分大类行业出口交货值(2012-2017)/电力、热力的生产和供应业.xlsx
+++ b/data_month/zb/工业/工业分大类行业出口交货值(2012-2017)/电力、热力的生产和供应业.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,1243 +454,1446 @@
           <t>电力、热力的生产和供应业出口交货值_累计增长</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>电力、热力的生产和供应业出口交货值</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-15.87</v>
+        <v>-3.73</v>
       </c>
       <c r="C2" t="n">
-        <v>5.25</v>
+        <v>7.95</v>
       </c>
       <c r="D2" t="n">
-        <v>53.94</v>
+        <v>15.71</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.289999999999999</v>
+        <v>-0.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15.71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2.96</v>
+        <v>-28.76</v>
       </c>
       <c r="C3" t="n">
-        <v>5.2</v>
+        <v>4.87</v>
       </c>
       <c r="D3" t="n">
-        <v>59.14</v>
+        <v>12.99</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.71</v>
+        <v>-22.34</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12.99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-27.39</v>
+        <v>-30.2</v>
       </c>
       <c r="C4" t="n">
-        <v>5.04</v>
+        <v>4.19</v>
       </c>
       <c r="D4" t="n">
-        <v>79.27</v>
+        <v>15.99</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.74</v>
+        <v>-24.41</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3.73</v>
+        <v>6.47</v>
       </c>
       <c r="C5" t="n">
-        <v>7.95</v>
+        <v>6.79</v>
       </c>
       <c r="D5" t="n">
-        <v>15.71</v>
+        <v>32.97</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.5</v>
+        <v>-7.58</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16.98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28.76</v>
+        <v>18.04</v>
       </c>
       <c r="C6" t="n">
-        <v>4.87</v>
+        <v>7.87</v>
       </c>
       <c r="D6" t="n">
-        <v>12.99</v>
+        <v>43.09</v>
       </c>
       <c r="E6" t="n">
-        <v>-22.34</v>
+        <v>26.36</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10.12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-30.2</v>
+        <v>34.22</v>
       </c>
       <c r="C7" t="n">
-        <v>4.19</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>15.99</v>
+        <v>73.95</v>
       </c>
       <c r="E7" t="n">
-        <v>-24.41</v>
+        <v>29.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>30.86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.47</v>
+        <v>10.85</v>
       </c>
       <c r="C8" t="n">
-        <v>6.79</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>32.97</v>
+        <v>50.43</v>
       </c>
       <c r="E8" t="n">
-        <v>-7.58</v>
+        <v>-4.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>50.43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18.04</v>
+        <v>-16.01</v>
       </c>
       <c r="C9" t="n">
-        <v>7.87</v>
+        <v>5.53</v>
       </c>
       <c r="D9" t="n">
-        <v>43.09</v>
+        <v>51.22</v>
       </c>
       <c r="E9" t="n">
-        <v>26.36</v>
+        <v>-4.72</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.7899999999999991</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>34.22</v>
+        <v>-15.87</v>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>5.25</v>
       </c>
       <c r="D10" t="n">
-        <v>73.95</v>
+        <v>53.94</v>
       </c>
       <c r="E10" t="n">
-        <v>29.5</v>
+        <v>-8.289999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.719999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.85</v>
+        <v>-2.96</v>
       </c>
       <c r="C11" t="n">
-        <v>8.029999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="D11" t="n">
-        <v>50.43</v>
+        <v>59.14</v>
       </c>
       <c r="E11" t="n">
-        <v>-4.5</v>
+        <v>-5.71</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5.200000000000003</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-16.01</v>
+        <v>-27.39</v>
       </c>
       <c r="C12" t="n">
-        <v>5.53</v>
+        <v>5.04</v>
       </c>
       <c r="D12" t="n">
-        <v>51.22</v>
+        <v>79.27</v>
       </c>
       <c r="E12" t="n">
-        <v>-4.72</v>
+        <v>-6.74</v>
+      </c>
+      <c r="F12" t="n">
+        <v>20.13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18.9</v>
+        <v>239</v>
       </c>
       <c r="C13" t="n">
-        <v>6.1</v>
+        <v>20.1</v>
       </c>
       <c r="D13" t="n">
-        <v>58.2</v>
+        <v>45.2</v>
       </c>
       <c r="E13" t="n">
-        <v>25.9</v>
+        <v>275.8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>45.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12.1</v>
+        <v>0.8</v>
       </c>
       <c r="C14" t="n">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="D14" t="n">
-        <v>59.8</v>
+        <v>12.8</v>
       </c>
       <c r="E14" t="n">
-        <v>16.4</v>
+        <v>5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>12.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-12.6</v>
+        <v>23.8</v>
       </c>
       <c r="C15" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="D15" t="n">
-        <v>72.09999999999999</v>
+        <v>15.8</v>
       </c>
       <c r="E15" t="n">
-        <v>1.1</v>
+        <v>6.1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>239</v>
+        <v>-35.2</v>
       </c>
       <c r="C16" t="n">
-        <v>20.1</v>
+        <v>3.3</v>
       </c>
       <c r="D16" t="n">
-        <v>45.2</v>
+        <v>18.8</v>
       </c>
       <c r="E16" t="n">
-        <v>275.8</v>
+        <v>-36.5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="C17" t="n">
-        <v>4.5</v>
+        <v>6.1</v>
       </c>
       <c r="D17" t="n">
-        <v>12.8</v>
+        <v>25.3</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>1.4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>23.8</v>
+        <v>-15.7</v>
       </c>
       <c r="C18" t="n">
-        <v>4.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>15.8</v>
+        <v>37.2</v>
       </c>
       <c r="E18" t="n">
-        <v>6.1</v>
+        <v>-31.6</v>
+      </c>
+      <c r="F18" t="n">
+        <v>11.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-35.2</v>
+        <v>-15</v>
       </c>
       <c r="C19" t="n">
-        <v>3.3</v>
+        <v>6.4</v>
       </c>
       <c r="D19" t="n">
-        <v>18.8</v>
+        <v>40.1</v>
       </c>
       <c r="E19" t="n">
-        <v>-36.5</v>
+        <v>-13.4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.899999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3</v>
+        <v>15.6</v>
       </c>
       <c r="C20" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="D20" t="n">
-        <v>25.3</v>
+        <v>46.6</v>
       </c>
       <c r="E20" t="n">
-        <v>1.4</v>
+        <v>6.8</v>
+      </c>
+      <c r="F20" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-15.7</v>
+        <v>18.9</v>
       </c>
       <c r="C21" t="n">
-        <v>8.199999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="D21" t="n">
-        <v>37.2</v>
+        <v>58.2</v>
       </c>
       <c r="E21" t="n">
-        <v>-31.6</v>
+        <v>25.9</v>
+      </c>
+      <c r="F21" t="n">
+        <v>11.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-15</v>
+        <v>12.1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="D22" t="n">
-        <v>40.1</v>
+        <v>59.8</v>
       </c>
       <c r="E22" t="n">
-        <v>-13.4</v>
+        <v>16.4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.599999999999994</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>15.6</v>
+        <v>-12.6</v>
       </c>
       <c r="C23" t="n">
-        <v>6.3</v>
+        <v>4.3</v>
       </c>
       <c r="D23" t="n">
-        <v>46.6</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>6.8</v>
+        <v>1.1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>12.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-30.2</v>
-      </c>
-      <c r="C24" t="n">
-        <v>4.4</v>
-      </c>
+          <t>2014-02</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>59.8</v>
+        <v>9.9</v>
       </c>
       <c r="E24" t="n">
-        <v>1.6</v>
+        <v>44.7</v>
+      </c>
+      <c r="F24" t="n">
+        <v>9.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.7</v>
+        <v>19.3</v>
       </c>
       <c r="C25" t="n">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="D25" t="n">
-        <v>56.2</v>
+        <v>13.6</v>
       </c>
       <c r="E25" t="n">
-        <v>-2.9</v>
+        <v>11.4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.699999999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>67.7</v>
+        <v>-6.8</v>
       </c>
       <c r="C26" t="n">
-        <v>7.3</v>
+        <v>3.6</v>
       </c>
       <c r="D26" t="n">
-        <v>64.2</v>
+        <v>18.4</v>
       </c>
       <c r="E26" t="n">
-        <v>-8.9</v>
+        <v>24.5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4.799999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+          <t>2014-05</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6.5</v>
+      </c>
       <c r="D27" t="n">
-        <v>9.9</v>
+        <v>25.5</v>
       </c>
       <c r="E27" t="n">
-        <v>44.7</v>
+        <v>44</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7.100000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.3</v>
+        <v>11</v>
       </c>
       <c r="C28" t="n">
-        <v>5.2</v>
+        <v>6.7</v>
       </c>
       <c r="D28" t="n">
-        <v>13.6</v>
+        <v>30.6</v>
       </c>
       <c r="E28" t="n">
-        <v>11.4</v>
+        <v>26.3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5.100000000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-6.8</v>
+        <v>-14.5</v>
       </c>
       <c r="C29" t="n">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="D29" t="n">
-        <v>18.4</v>
+        <v>44.2</v>
       </c>
       <c r="E29" t="n">
-        <v>24.5</v>
+        <v>16.9</v>
+      </c>
+      <c r="F29" t="n">
+        <v>13.6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>103.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>6.5</v>
+        <v>7.8</v>
       </c>
       <c r="D30" t="n">
-        <v>25.5</v>
+        <v>54.7</v>
       </c>
       <c r="E30" t="n">
-        <v>44</v>
+        <v>21.2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11</v>
+        <v>-4.2</v>
       </c>
       <c r="C31" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="D31" t="n">
-        <v>30.6</v>
+        <v>74.7</v>
       </c>
       <c r="E31" t="n">
-        <v>26.3</v>
+        <v>55.1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-14.5</v>
+        <v>-30.2</v>
       </c>
       <c r="C32" t="n">
-        <v>7.2</v>
+        <v>4.4</v>
       </c>
       <c r="D32" t="n">
-        <v>44.2</v>
+        <v>59.8</v>
       </c>
       <c r="E32" t="n">
-        <v>16.9</v>
+        <v>1.6</v>
+      </c>
+      <c r="F32" t="n">
+        <v>59.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8.199999999999999</v>
+        <v>16.7</v>
       </c>
       <c r="C33" t="n">
-        <v>7.8</v>
+        <v>3.9</v>
       </c>
       <c r="D33" t="n">
-        <v>54.7</v>
+        <v>56.2</v>
       </c>
       <c r="E33" t="n">
-        <v>21.2</v>
+        <v>-2.9</v>
+      </c>
+      <c r="F33" t="n">
+        <v>56.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-4.2</v>
+        <v>67.7</v>
       </c>
       <c r="C34" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="D34" t="n">
-        <v>74.7</v>
+        <v>64.2</v>
       </c>
       <c r="E34" t="n">
-        <v>55.1</v>
+        <v>-8.9</v>
+      </c>
+      <c r="F34" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>104</v>
-      </c>
-      <c r="C35" t="n">
-        <v>9.199999999999999</v>
-      </c>
+          <t>2015-02</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>83.5</v>
+        <v>25.8</v>
       </c>
       <c r="E35" t="n">
-        <v>36.9</v>
+        <v>118.4</v>
+      </c>
+      <c r="F35" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>83.59999999999999</v>
+        <v>23.6</v>
       </c>
       <c r="C36" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="D36" t="n">
-        <v>80.59999999999999</v>
+        <v>22</v>
       </c>
       <c r="E36" t="n">
-        <v>39.8</v>
+        <v>39.3</v>
+      </c>
+      <c r="F36" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-11.8</v>
+        <v>42.4</v>
       </c>
       <c r="C37" t="n">
-        <v>8.300000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="D37" t="n">
-        <v>107.1</v>
+        <v>27.2</v>
       </c>
       <c r="E37" t="n">
-        <v>40.3</v>
+        <v>29.7</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5.199999999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+          <t>2015-05</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-5.2</v>
+      </c>
+      <c r="C38" t="n">
+        <v>7.1</v>
+      </c>
       <c r="D38" t="n">
-        <v>25.8</v>
+        <v>34.9</v>
       </c>
       <c r="E38" t="n">
-        <v>118.4</v>
+        <v>20</v>
+      </c>
+      <c r="F38" t="n">
+        <v>7.699999999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>23.6</v>
+        <v>10.3</v>
       </c>
       <c r="C39" t="n">
-        <v>7.4</v>
+        <v>9.5</v>
       </c>
       <c r="D39" t="n">
-        <v>22</v>
+        <v>48.9</v>
       </c>
       <c r="E39" t="n">
-        <v>39.3</v>
+        <v>33.9</v>
+      </c>
+      <c r="F39" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>42.4</v>
+        <v>25.2</v>
       </c>
       <c r="C40" t="n">
-        <v>6.1</v>
+        <v>10.5</v>
       </c>
       <c r="D40" t="n">
-        <v>27.2</v>
+        <v>62.4</v>
       </c>
       <c r="E40" t="n">
-        <v>29.7</v>
+        <v>34.2</v>
+      </c>
+      <c r="F40" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-5.2</v>
+        <v>-144.2</v>
       </c>
       <c r="C41" t="n">
-        <v>7.1</v>
+        <v>-2.3</v>
       </c>
       <c r="D41" t="n">
-        <v>34.9</v>
+        <v>71.7</v>
       </c>
       <c r="E41" t="n">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="F41" t="n">
+        <v>9.300000000000004</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>10.3</v>
+        <v>61.6</v>
       </c>
       <c r="C42" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="D42" t="n">
-        <v>48.9</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>33.9</v>
+        <v>-4.4</v>
+      </c>
+      <c r="F42" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>25.2</v>
+        <v>104</v>
       </c>
       <c r="C43" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>62.4</v>
+        <v>83.5</v>
       </c>
       <c r="E43" t="n">
-        <v>34.2</v>
+        <v>36.9</v>
+      </c>
+      <c r="F43" t="n">
+        <v>12.09999999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-144.2</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>-2.3</v>
+        <v>7.3</v>
       </c>
       <c r="D44" t="n">
-        <v>71.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>31</v>
+        <v>39.8</v>
+      </c>
+      <c r="F44" t="n">
+        <v>80.59999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>61.6</v>
+        <v>-11.8</v>
       </c>
       <c r="C45" t="n">
-        <v>10.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>71.40000000000001</v>
+        <v>107.1</v>
       </c>
       <c r="E45" t="n">
-        <v>-4.4</v>
+        <v>40.3</v>
+      </c>
+      <c r="F45" t="n">
+        <v>26.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="C46" t="n">
-        <v>9.199999999999999</v>
-      </c>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>78.59999999999999</v>
+        <v>34.4</v>
       </c>
       <c r="E46" t="n">
-        <v>2.9</v>
+        <v>34.4</v>
+      </c>
+      <c r="F46" t="n">
+        <v>34.4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-35.2</v>
+        <v>28.8</v>
       </c>
       <c r="C47" t="n">
-        <v>4.6</v>
+        <v>9.4</v>
       </c>
       <c r="D47" t="n">
-        <v>77.59999999999999</v>
+        <v>31.4</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.8</v>
+        <v>44</v>
+      </c>
+      <c r="F47" t="n">
+        <v>31.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>6.1</v>
+        <v>-28.1</v>
       </c>
       <c r="C48" t="n">
-        <v>8.699999999999999</v>
+        <v>4.1</v>
       </c>
       <c r="D48" t="n">
-        <v>85.40000000000001</v>
+        <v>19.4</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.9</v>
+        <v>-33.6</v>
+      </c>
+      <c r="F48" t="n">
+        <v>19.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>-29.3</v>
+      </c>
+      <c r="C49" t="n">
+        <v>5.3</v>
+      </c>
       <c r="D49" t="n">
-        <v>34.4</v>
+        <v>26.3</v>
       </c>
       <c r="E49" t="n">
-        <v>34.4</v>
+        <v>-25.7</v>
+      </c>
+      <c r="F49" t="n">
+        <v>6.900000000000002</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>28.8</v>
+        <v>-26.3</v>
       </c>
       <c r="C50" t="n">
-        <v>9.4</v>
+        <v>7</v>
       </c>
       <c r="D50" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="E50" t="n">
-        <v>44</v>
+        <v>-36</v>
+      </c>
+      <c r="F50" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-28.1</v>
+        <v>-26</v>
       </c>
       <c r="C51" t="n">
-        <v>4.1</v>
+        <v>7.7</v>
       </c>
       <c r="D51" t="n">
-        <v>19.4</v>
+        <v>42.1</v>
       </c>
       <c r="E51" t="n">
-        <v>-33.6</v>
+        <v>-31.2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>10.8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-29.3</v>
+        <v>-516.7</v>
       </c>
       <c r="C52" t="n">
-        <v>5.3</v>
+        <v>10</v>
       </c>
       <c r="D52" t="n">
-        <v>26.3</v>
+        <v>56.7</v>
       </c>
       <c r="E52" t="n">
-        <v>-25.7</v>
+        <v>-19.7</v>
+      </c>
+      <c r="F52" t="n">
+        <v>14.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-26.3</v>
+        <v>-2.4</v>
       </c>
       <c r="C53" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>31.3</v>
+        <v>58.9</v>
       </c>
       <c r="E53" t="n">
-        <v>-36</v>
+        <v>2.3</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2.199999999999996</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-26</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>7.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>42.1</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>-31.2</v>
+        <v>2.9</v>
+      </c>
+      <c r="F54" t="n">
+        <v>19.7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-516.7</v>
+        <v>-35.2</v>
       </c>
       <c r="C55" t="n">
-        <v>10</v>
+        <v>4.6</v>
       </c>
       <c r="D55" t="n">
-        <v>56.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>-19.7</v>
+        <v>-1.8</v>
+      </c>
+      <c r="F55" t="n">
+        <v>77.59999999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-2.4</v>
+        <v>6.1</v>
       </c>
       <c r="C56" t="n">
-        <v>8.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>58.9</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>2.3</v>
+        <v>-18.9</v>
+      </c>
+      <c r="F56" t="n">
+        <v>7.800000000000011</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>-23.5</v>
-      </c>
-      <c r="C57" t="n">
-        <v>8.800000000000001</v>
-      </c>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>91.90000000000001</v>
+        <v>50.2</v>
       </c>
       <c r="E57" t="n">
-        <v>-6.2</v>
+        <v>-6.7</v>
+      </c>
+      <c r="F57" t="n">
+        <v>50.2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-5.4</v>
+        <v>-5.2</v>
       </c>
       <c r="C58" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D58" t="n">
-        <v>96.2</v>
+        <v>30.9</v>
       </c>
       <c r="E58" t="n">
-        <v>-3.8</v>
+        <v>-19.9</v>
+      </c>
+      <c r="F58" t="n">
+        <v>30.9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-36.5</v>
+        <v>36.2</v>
       </c>
       <c r="C59" t="n">
-        <v>6.6</v>
+        <v>7.9</v>
       </c>
       <c r="D59" t="n">
-        <v>106.7</v>
+        <v>31</v>
       </c>
       <c r="E59" t="n">
-        <v>-2.8</v>
+        <v>19.2</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.1000000000000014</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C60" t="n">
+        <v>9.1</v>
+      </c>
       <c r="D60" t="n">
-        <v>50.2</v>
+        <v>41.1</v>
       </c>
       <c r="E60" t="n">
-        <v>-6.7</v>
+        <v>18.1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>10.1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-5.2</v>
+        <v>20</v>
       </c>
       <c r="C61" t="n">
-        <v>11</v>
+        <v>10.2</v>
       </c>
       <c r="D61" t="n">
-        <v>30.9</v>
+        <v>52.6</v>
       </c>
       <c r="E61" t="n">
-        <v>-19.9</v>
+        <v>28</v>
+      </c>
+      <c r="F61" t="n">
+        <v>11.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>36.2</v>
+        <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>7.9</v>
+        <v>10.2</v>
       </c>
       <c r="D62" t="n">
-        <v>31</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
+      </c>
+      <c r="F62" t="n">
+        <v>13.49999999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>26.4</v>
+        <v>-13.6</v>
       </c>
       <c r="C63" t="n">
-        <v>9.1</v>
+        <v>7.6</v>
       </c>
       <c r="D63" t="n">
-        <v>41.1</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>18.1</v>
+        <v>15.4</v>
+      </c>
+      <c r="F63" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>20</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>10.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>52.6</v>
+        <v>79.5</v>
       </c>
       <c r="E64" t="n">
-        <v>28</v>
+        <v>4.5</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.9000000000000057</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>-23.5</v>
       </c>
       <c r="C65" t="n">
-        <v>10.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>66.09999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>19.5</v>
+        <v>-6.2</v>
+      </c>
+      <c r="F65" t="n">
+        <v>12.40000000000001</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-13.6</v>
+        <v>-5.4</v>
       </c>
       <c r="C66" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="D66" t="n">
-        <v>78.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="E66" t="n">
-        <v>15.4</v>
+        <v>-3.8</v>
+      </c>
+      <c r="F66" t="n">
+        <v>4.299999999999997</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-9.800000000000001</v>
+        <v>-36.5</v>
       </c>
       <c r="C67" t="n">
-        <v>9.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="D67" t="n">
-        <v>79.5</v>
+        <v>106.7</v>
       </c>
       <c r="E67" t="n">
-        <v>4.5</v>
+        <v>-2.8</v>
+      </c>
+      <c r="F67" t="n">
+        <v>10.5</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/工业/工业分大类行业出口交货值(2012-2017)/电力、热力的生产和供应业.xlsx
+++ b/data_month/zb/工业/工业分大类行业出口交货值(2012-2017)/电力、热力的生产和供应业.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,1446 +454,1243 @@
           <t>电力、热力的生产和供应业出口交货值_累计增长</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>电力、热力的生产和供应业出口交货值</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2012-02</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.73</v>
+        <v>-15.87</v>
       </c>
       <c r="C2" t="n">
-        <v>7.95</v>
+        <v>5.25</v>
       </c>
       <c r="D2" t="n">
-        <v>15.71</v>
+        <v>53.94</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>15.71</v>
+        <v>-8.289999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2012-03</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-28.76</v>
+        <v>-2.96</v>
       </c>
       <c r="C3" t="n">
-        <v>4.87</v>
+        <v>5.2</v>
       </c>
       <c r="D3" t="n">
-        <v>12.99</v>
+        <v>59.14</v>
       </c>
       <c r="E3" t="n">
-        <v>-22.34</v>
-      </c>
-      <c r="F3" t="n">
-        <v>12.99</v>
+        <v>-5.71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012-04</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-30.2</v>
+        <v>-27.39</v>
       </c>
       <c r="C4" t="n">
-        <v>4.19</v>
+        <v>5.04</v>
       </c>
       <c r="D4" t="n">
-        <v>15.99</v>
+        <v>79.27</v>
       </c>
       <c r="E4" t="n">
-        <v>-24.41</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+        <v>-6.74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2012-05</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.47</v>
+        <v>-3.73</v>
       </c>
       <c r="C5" t="n">
-        <v>6.79</v>
+        <v>7.95</v>
       </c>
       <c r="D5" t="n">
-        <v>32.97</v>
+        <v>15.71</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.58</v>
-      </c>
-      <c r="F5" t="n">
-        <v>16.98</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012-06</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18.04</v>
+        <v>-28.76</v>
       </c>
       <c r="C6" t="n">
-        <v>7.87</v>
+        <v>4.87</v>
       </c>
       <c r="D6" t="n">
-        <v>43.09</v>
+        <v>12.99</v>
       </c>
       <c r="E6" t="n">
-        <v>26.36</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10.12</v>
+        <v>-22.34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012-07</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.22</v>
+        <v>-30.2</v>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>4.19</v>
       </c>
       <c r="D7" t="n">
-        <v>73.95</v>
+        <v>15.99</v>
       </c>
       <c r="E7" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>30.86</v>
+        <v>-24.41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2012-08</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.85</v>
+        <v>6.47</v>
       </c>
       <c r="C8" t="n">
-        <v>8.029999999999999</v>
+        <v>6.79</v>
       </c>
       <c r="D8" t="n">
-        <v>50.43</v>
+        <v>32.97</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="F8" t="n">
-        <v>50.43</v>
+        <v>-7.58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2012-09</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-16.01</v>
+        <v>18.04</v>
       </c>
       <c r="C9" t="n">
-        <v>5.53</v>
+        <v>7.87</v>
       </c>
       <c r="D9" t="n">
-        <v>51.22</v>
+        <v>43.09</v>
       </c>
       <c r="E9" t="n">
-        <v>-4.72</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.7899999999999991</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012-10</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-15.87</v>
+        <v>34.22</v>
       </c>
       <c r="C10" t="n">
-        <v>5.25</v>
+        <v>11</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94</v>
+        <v>73.95</v>
       </c>
       <c r="E10" t="n">
-        <v>-8.289999999999999</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.719999999999999</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2012-11</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.96</v>
+        <v>10.85</v>
       </c>
       <c r="C11" t="n">
-        <v>5.2</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>59.14</v>
+        <v>50.43</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.71</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5.200000000000003</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012-12</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-27.39</v>
+        <v>-16.01</v>
       </c>
       <c r="C12" t="n">
-        <v>5.04</v>
+        <v>5.53</v>
       </c>
       <c r="D12" t="n">
-        <v>79.27</v>
+        <v>51.22</v>
       </c>
       <c r="E12" t="n">
-        <v>-6.74</v>
-      </c>
-      <c r="F12" t="n">
-        <v>20.13</v>
+        <v>-4.72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2013-02</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>239</v>
+        <v>18.9</v>
       </c>
       <c r="C13" t="n">
-        <v>20.1</v>
+        <v>6.1</v>
       </c>
       <c r="D13" t="n">
-        <v>45.2</v>
+        <v>58.2</v>
       </c>
       <c r="E13" t="n">
-        <v>275.8</v>
-      </c>
-      <c r="F13" t="n">
-        <v>45.2</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2013-03</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8</v>
+        <v>12.1</v>
       </c>
       <c r="C14" t="n">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
       <c r="D14" t="n">
-        <v>12.8</v>
+        <v>59.8</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
-      </c>
-      <c r="F14" t="n">
-        <v>12.8</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2013-04</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23.8</v>
+        <v>-12.6</v>
       </c>
       <c r="C15" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D15" t="n">
-        <v>15.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2013-05</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-35.2</v>
+        <v>239</v>
       </c>
       <c r="C16" t="n">
-        <v>3.3</v>
+        <v>20.1</v>
       </c>
       <c r="D16" t="n">
-        <v>18.8</v>
+        <v>45.2</v>
       </c>
       <c r="E16" t="n">
-        <v>-36.5</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+        <v>275.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2013-06</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="C17" t="n">
-        <v>6.1</v>
+        <v>4.5</v>
       </c>
       <c r="D17" t="n">
-        <v>25.3</v>
+        <v>12.8</v>
       </c>
       <c r="E17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="F17" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2013-07</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-15.7</v>
+        <v>23.8</v>
       </c>
       <c r="C18" t="n">
-        <v>8.199999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="D18" t="n">
-        <v>37.2</v>
+        <v>15.8</v>
       </c>
       <c r="E18" t="n">
-        <v>-31.6</v>
-      </c>
-      <c r="F18" t="n">
-        <v>11.9</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2013-08</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-15</v>
+        <v>-35.2</v>
       </c>
       <c r="C19" t="n">
-        <v>6.4</v>
+        <v>3.3</v>
       </c>
       <c r="D19" t="n">
-        <v>40.1</v>
+        <v>18.8</v>
       </c>
       <c r="E19" t="n">
-        <v>-13.4</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2.899999999999999</v>
+        <v>-36.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2013-09</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15.6</v>
+        <v>0.3</v>
       </c>
       <c r="C20" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="D20" t="n">
-        <v>46.6</v>
+        <v>25.3</v>
       </c>
       <c r="E20" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F20" t="n">
-        <v>6.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2013-10</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>18.9</v>
+        <v>-15.7</v>
       </c>
       <c r="C21" t="n">
-        <v>6.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>58.2</v>
+        <v>37.2</v>
       </c>
       <c r="E21" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F21" t="n">
-        <v>11.6</v>
+        <v>-31.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2013-11</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>12.1</v>
+        <v>-15</v>
       </c>
       <c r="C22" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="D22" t="n">
-        <v>59.8</v>
+        <v>40.1</v>
       </c>
       <c r="E22" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.599999999999994</v>
+        <v>-13.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2013-12</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-12.6</v>
+        <v>15.6</v>
       </c>
       <c r="C23" t="n">
-        <v>4.3</v>
+        <v>6.3</v>
       </c>
       <c r="D23" t="n">
-        <v>72.09999999999999</v>
+        <v>46.6</v>
       </c>
       <c r="E23" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>12.3</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2014-02</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
+          <t>2014-10</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-30.2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.4</v>
+      </c>
       <c r="D24" t="n">
-        <v>9.9</v>
+        <v>59.8</v>
       </c>
       <c r="E24" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="F24" t="n">
-        <v>9.9</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2014-03</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.3</v>
+        <v>16.7</v>
       </c>
       <c r="C25" t="n">
-        <v>5.2</v>
+        <v>3.9</v>
       </c>
       <c r="D25" t="n">
-        <v>13.6</v>
+        <v>56.2</v>
       </c>
       <c r="E25" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F25" t="n">
-        <v>3.699999999999999</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2014-04</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-6.8</v>
+        <v>67.7</v>
       </c>
       <c r="C26" t="n">
-        <v>3.6</v>
+        <v>7.3</v>
       </c>
       <c r="D26" t="n">
-        <v>18.4</v>
+        <v>64.2</v>
       </c>
       <c r="E26" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F26" t="n">
-        <v>4.799999999999999</v>
+        <v>-8.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2014-05</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>103.7</v>
-      </c>
-      <c r="C27" t="n">
-        <v>6.5</v>
-      </c>
+          <t>2014-02</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>25.5</v>
+        <v>9.9</v>
       </c>
       <c r="E27" t="n">
-        <v>44</v>
-      </c>
-      <c r="F27" t="n">
-        <v>7.100000000000001</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2014-06</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11</v>
+        <v>19.3</v>
       </c>
       <c r="C28" t="n">
-        <v>6.7</v>
+        <v>5.2</v>
       </c>
       <c r="D28" t="n">
-        <v>30.6</v>
+        <v>13.6</v>
       </c>
       <c r="E28" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F28" t="n">
-        <v>5.100000000000001</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2014-07</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-14.5</v>
+        <v>-6.8</v>
       </c>
       <c r="C29" t="n">
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
       <c r="D29" t="n">
-        <v>44.2</v>
+        <v>18.4</v>
       </c>
       <c r="E29" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="F29" t="n">
-        <v>13.6</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2014-08</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8.199999999999999</v>
+        <v>103.7</v>
       </c>
       <c r="C30" t="n">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="D30" t="n">
-        <v>54.7</v>
+        <v>25.5</v>
       </c>
       <c r="E30" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F30" t="n">
-        <v>10.5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2014-09</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-4.2</v>
+        <v>11</v>
       </c>
       <c r="C31" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="D31" t="n">
-        <v>74.7</v>
+        <v>30.6</v>
       </c>
       <c r="E31" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F31" t="n">
-        <v>20</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-30.2</v>
+        <v>-14.5</v>
       </c>
       <c r="C32" t="n">
-        <v>4.4</v>
+        <v>7.2</v>
       </c>
       <c r="D32" t="n">
-        <v>59.8</v>
+        <v>44.2</v>
       </c>
       <c r="E32" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="F32" t="n">
-        <v>59.8</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>16.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>3.9</v>
+        <v>7.8</v>
       </c>
       <c r="D33" t="n">
-        <v>56.2</v>
+        <v>54.7</v>
       </c>
       <c r="E33" t="n">
-        <v>-2.9</v>
-      </c>
-      <c r="F33" t="n">
-        <v>56.2</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>67.7</v>
+        <v>-4.2</v>
       </c>
       <c r="C34" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="D34" t="n">
-        <v>64.2</v>
+        <v>74.7</v>
       </c>
       <c r="E34" t="n">
-        <v>-8.9</v>
-      </c>
-      <c r="F34" t="n">
-        <v>8</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2015-02</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
+          <t>2015-10</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>104</v>
+      </c>
+      <c r="C35" t="n">
+        <v>9.199999999999999</v>
+      </c>
       <c r="D35" t="n">
-        <v>25.8</v>
+        <v>83.5</v>
       </c>
       <c r="E35" t="n">
-        <v>118.4</v>
-      </c>
-      <c r="F35" t="n">
-        <v>25.8</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2015-03</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>23.6</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="D36" t="n">
-        <v>22</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="F36" t="n">
-        <v>22</v>
+        <v>39.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2015-04</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42.4</v>
+        <v>-11.8</v>
       </c>
       <c r="C37" t="n">
-        <v>6.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>27.2</v>
+        <v>107.1</v>
       </c>
       <c r="E37" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="F37" t="n">
-        <v>5.199999999999999</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2015-05</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>-5.2</v>
-      </c>
-      <c r="C38" t="n">
-        <v>7.1</v>
-      </c>
+          <t>2015-02</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>34.9</v>
+        <v>25.8</v>
       </c>
       <c r="E38" t="n">
-        <v>20</v>
-      </c>
-      <c r="F38" t="n">
-        <v>7.699999999999999</v>
+        <v>118.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2015-06</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>10.3</v>
+        <v>23.6</v>
       </c>
       <c r="C39" t="n">
-        <v>9.5</v>
+        <v>7.4</v>
       </c>
       <c r="D39" t="n">
-        <v>48.9</v>
+        <v>22</v>
       </c>
       <c r="E39" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="F39" t="n">
-        <v>14</v>
+        <v>39.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2015-07</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>25.2</v>
+        <v>42.4</v>
       </c>
       <c r="C40" t="n">
-        <v>10.5</v>
+        <v>6.1</v>
       </c>
       <c r="D40" t="n">
-        <v>62.4</v>
+        <v>27.2</v>
       </c>
       <c r="E40" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="F40" t="n">
-        <v>13.5</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2015-08</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-144.2</v>
+        <v>-5.2</v>
       </c>
       <c r="C41" t="n">
-        <v>-2.3</v>
+        <v>7.1</v>
       </c>
       <c r="D41" t="n">
-        <v>71.7</v>
+        <v>34.9</v>
       </c>
       <c r="E41" t="n">
-        <v>31</v>
-      </c>
-      <c r="F41" t="n">
-        <v>9.300000000000004</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2015-09</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>61.6</v>
+        <v>10.3</v>
       </c>
       <c r="C42" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="D42" t="n">
-        <v>71.40000000000001</v>
+        <v>48.9</v>
       </c>
       <c r="E42" t="n">
-        <v>-4.4</v>
-      </c>
-      <c r="F42" t="n">
-        <v>71.40000000000001</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>104</v>
+        <v>25.2</v>
       </c>
       <c r="C43" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="D43" t="n">
-        <v>83.5</v>
+        <v>62.4</v>
       </c>
       <c r="E43" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="F43" t="n">
-        <v>12.09999999999999</v>
+        <v>34.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>83.59999999999999</v>
+        <v>-144.2</v>
       </c>
       <c r="C44" t="n">
-        <v>7.3</v>
+        <v>-2.3</v>
       </c>
       <c r="D44" t="n">
-        <v>80.59999999999999</v>
+        <v>71.7</v>
       </c>
       <c r="E44" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="F44" t="n">
-        <v>80.59999999999999</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2015-12</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-11.8</v>
+        <v>61.6</v>
       </c>
       <c r="C45" t="n">
-        <v>8.300000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="D45" t="n">
-        <v>107.1</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>40.3</v>
-      </c>
-      <c r="F45" t="n">
-        <v>26.5</v>
+        <v>-4.4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
+          <t>2016-10</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C46" t="n">
+        <v>9.199999999999999</v>
+      </c>
       <c r="D46" t="n">
-        <v>34.4</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="F46" t="n">
-        <v>34.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>28.8</v>
+        <v>-35.2</v>
       </c>
       <c r="C47" t="n">
-        <v>9.4</v>
+        <v>4.6</v>
       </c>
       <c r="D47" t="n">
-        <v>31.4</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>44</v>
-      </c>
-      <c r="F47" t="n">
-        <v>31.4</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-28.1</v>
+        <v>6.1</v>
       </c>
       <c r="C48" t="n">
-        <v>4.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>19.4</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>-33.6</v>
-      </c>
-      <c r="F48" t="n">
-        <v>19.4</v>
+        <v>-18.9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>-29.3</v>
-      </c>
-      <c r="C49" t="n">
-        <v>5.3</v>
-      </c>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>26.3</v>
+        <v>34.4</v>
       </c>
       <c r="E49" t="n">
-        <v>-25.7</v>
-      </c>
-      <c r="F49" t="n">
-        <v>6.900000000000002</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-26.3</v>
+        <v>28.8</v>
       </c>
       <c r="C50" t="n">
-        <v>7</v>
+        <v>9.4</v>
       </c>
       <c r="D50" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="E50" t="n">
-        <v>-36</v>
-      </c>
-      <c r="F50" t="n">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-26</v>
+        <v>-28.1</v>
       </c>
       <c r="C51" t="n">
-        <v>7.7</v>
+        <v>4.1</v>
       </c>
       <c r="D51" t="n">
-        <v>42.1</v>
+        <v>19.4</v>
       </c>
       <c r="E51" t="n">
-        <v>-31.2</v>
-      </c>
-      <c r="F51" t="n">
-        <v>10.8</v>
+        <v>-33.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-516.7</v>
+        <v>-29.3</v>
       </c>
       <c r="C52" t="n">
-        <v>10</v>
+        <v>5.3</v>
       </c>
       <c r="D52" t="n">
-        <v>56.7</v>
+        <v>26.3</v>
       </c>
       <c r="E52" t="n">
-        <v>-19.7</v>
-      </c>
-      <c r="F52" t="n">
-        <v>14.6</v>
+        <v>-25.7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-2.4</v>
+        <v>-26.3</v>
       </c>
       <c r="C53" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="D53" t="n">
-        <v>58.9</v>
+        <v>31.3</v>
       </c>
       <c r="E53" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="F53" t="n">
-        <v>2.199999999999996</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>8.199999999999999</v>
+        <v>-26</v>
       </c>
       <c r="C54" t="n">
-        <v>9.199999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="D54" t="n">
-        <v>78.59999999999999</v>
+        <v>42.1</v>
       </c>
       <c r="E54" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="F54" t="n">
-        <v>19.7</v>
+        <v>-31.2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-35.2</v>
+        <v>-516.7</v>
       </c>
       <c r="C55" t="n">
-        <v>4.6</v>
+        <v>10</v>
       </c>
       <c r="D55" t="n">
-        <v>77.59999999999999</v>
+        <v>56.7</v>
       </c>
       <c r="E55" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="F55" t="n">
-        <v>77.59999999999999</v>
+        <v>-19.7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>6.1</v>
+        <v>-2.4</v>
       </c>
       <c r="C56" t="n">
-        <v>8.699999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>85.40000000000001</v>
+        <v>58.9</v>
       </c>
       <c r="E56" t="n">
-        <v>-18.9</v>
-      </c>
-      <c r="F56" t="n">
-        <v>7.800000000000011</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
+          <t>2017-10</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>-23.5</v>
+      </c>
+      <c r="C57" t="n">
+        <v>8.800000000000001</v>
+      </c>
       <c r="D57" t="n">
-        <v>50.2</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>-6.7</v>
-      </c>
-      <c r="F57" t="n">
-        <v>50.2</v>
+        <v>-6.2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-5.2</v>
+        <v>-5.4</v>
       </c>
       <c r="C58" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D58" t="n">
-        <v>30.9</v>
+        <v>96.2</v>
       </c>
       <c r="E58" t="n">
-        <v>-19.9</v>
-      </c>
-      <c r="F58" t="n">
-        <v>30.9</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>36.2</v>
+        <v>-36.5</v>
       </c>
       <c r="C59" t="n">
-        <v>7.9</v>
+        <v>6.6</v>
       </c>
       <c r="D59" t="n">
-        <v>31</v>
+        <v>106.7</v>
       </c>
       <c r="E59" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.1000000000000014</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C60" t="n">
-        <v>9.1</v>
-      </c>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>41.1</v>
+        <v>50.2</v>
       </c>
       <c r="E60" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F60" t="n">
-        <v>10.1</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>20</v>
+        <v>-5.2</v>
       </c>
       <c r="C61" t="n">
-        <v>10.2</v>
+        <v>11</v>
       </c>
       <c r="D61" t="n">
-        <v>52.6</v>
+        <v>30.9</v>
       </c>
       <c r="E61" t="n">
-        <v>28</v>
-      </c>
-      <c r="F61" t="n">
-        <v>11.5</v>
+        <v>-19.9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>36.2</v>
       </c>
       <c r="C62" t="n">
-        <v>10.2</v>
+        <v>7.9</v>
       </c>
       <c r="D62" t="n">
-        <v>66.09999999999999</v>
+        <v>31</v>
       </c>
       <c r="E62" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="F62" t="n">
-        <v>13.49999999999999</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-13.6</v>
+        <v>26.4</v>
       </c>
       <c r="C63" t="n">
-        <v>7.6</v>
+        <v>9.1</v>
       </c>
       <c r="D63" t="n">
-        <v>78.59999999999999</v>
+        <v>41.1</v>
       </c>
       <c r="E63" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="F63" t="n">
-        <v>12.5</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-9.800000000000001</v>
+        <v>20</v>
       </c>
       <c r="C64" t="n">
-        <v>9.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="D64" t="n">
-        <v>79.5</v>
+        <v>52.6</v>
       </c>
       <c r="E64" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.9000000000000057</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-23.5</v>
+        <v>2</v>
       </c>
       <c r="C65" t="n">
-        <v>8.800000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="D65" t="n">
-        <v>91.90000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.2</v>
-      </c>
-      <c r="F65" t="n">
-        <v>12.40000000000001</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-5.4</v>
+        <v>-13.6</v>
       </c>
       <c r="C66" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="D66" t="n">
-        <v>96.2</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>-3.8</v>
-      </c>
-      <c r="F66" t="n">
-        <v>4.299999999999997</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-36.5</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>6.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>106.7</v>
+        <v>79.5</v>
       </c>
       <c r="E67" t="n">
-        <v>-2.8</v>
-      </c>
-      <c r="F67" t="n">
-        <v>10.5</v>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
